--- a/DMSNewVSale_2025-12-02_19-27.xlsx
+++ b/DMSNewVSale_2025-12-02_19-27.xlsx
@@ -180,6 +180,15 @@
   </si>
   <si>
     <t>160.0000</t>
+  </si>
+  <si>
+    <t>BRAVAMAX 200MG 10 TAB</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
   </si>
   <si>
     <t>BROMOFLAM 0.09% EYE DROPS 5 ML</t>
@@ -2003,7 +2012,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2013,14 +2022,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2029,14 +2038,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2069,7 +2078,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2102,7 +2111,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2112,14 +2121,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2128,14 +2137,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2145,14 +2154,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2161,14 +2170,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2178,14 +2187,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>81</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>15</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2201,7 +2210,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2234,7 +2243,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2251,7 +2260,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2267,7 +2276,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2277,11 +2286,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>17</v>
@@ -2293,14 +2302,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2310,14 +2319,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2333,7 +2342,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2343,11 +2352,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>15</v>
@@ -2359,14 +2368,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2399,7 +2408,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2409,14 +2418,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>78</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2425,14 +2434,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2442,14 +2451,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>17</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2458,7 +2467,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2471,15 +2480,15 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>17</v>
@@ -2498,24 +2507,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2524,20 +2533,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2564,13 +2573,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2581,7 +2590,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2597,7 +2606,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2607,14 +2616,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2623,14 +2632,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2640,11 +2649,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>15</v>
@@ -2663,7 +2672,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2680,7 +2689,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>125</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2689,14 +2698,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2706,14 +2715,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>128</v>
-      </c>
-      <c t="s" r="Q42" s="12">
-        <v>17</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2729,7 +2738,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2739,14 +2748,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>94</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2755,14 +2764,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2779,7 +2788,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>24</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2795,7 +2804,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2805,14 +2814,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2821,31 +2830,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2861,21 +2870,21 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>15</v>
@@ -2887,14 +2896,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2927,7 +2936,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2944,7 +2953,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2993,7 +3002,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3026,7 +3035,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3069,11 +3078,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>17</v>
@@ -3085,7 +3094,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3102,11 +3111,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>17</v>
@@ -3125,7 +3134,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3135,14 +3144,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3151,31 +3160,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3184,31 +3193,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3217,28 +3226,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>68</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>15</v>
@@ -3257,24 +3266,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3290,7 +3299,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3300,7 +3309,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3333,14 +3342,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>180</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3349,14 +3358,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3366,14 +3375,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>21</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>22</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>17</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3382,14 +3391,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3399,11 +3408,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>17</v>
@@ -3422,7 +3431,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>186</v>
+        <v>17</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3432,11 +3441,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>17</v>
@@ -3448,14 +3457,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>94</v>
+        <v>189</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3472,7 +3481,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>61</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3488,7 +3497,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3498,14 +3507,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>62</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>63</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>15</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3514,14 +3523,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>194</v>
+        <v>31</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3531,11 +3540,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>65</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>15</v>
@@ -3547,14 +3556,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3587,7 +3596,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3597,7 +3606,7 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3620,7 +3629,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>17</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3630,14 +3639,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>148</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>33</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>61</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3646,7 +3655,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3663,14 +3672,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>138</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3679,7 +3688,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3696,14 +3705,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>141</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>17</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3719,7 +3728,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3762,11 +3771,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>95</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>17</v>
@@ -3778,7 +3787,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3795,7 +3804,7 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>98</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
@@ -3818,7 +3827,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>219</v>
+        <v>31</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3828,14 +3837,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3844,14 +3853,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>24</v>
+        <v>222</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3868,7 +3877,7 @@
         <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3884,21 +3893,21 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>49</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>50</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>17</v>
@@ -3910,7 +3919,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3923,15 +3932,15 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>49</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>17</v>
@@ -3950,7 +3959,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3983,7 +3992,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3993,14 +4002,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>148</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4009,14 +4018,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4026,14 +4035,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4042,31 +4051,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>194</v>
+        <v>31</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>69</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4075,28 +4084,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>71</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>15</v>
@@ -4115,7 +4124,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4125,14 +4134,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4141,7 +4150,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4158,14 +4167,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>113</v>
+        <v>230</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4174,14 +4183,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4191,7 +4200,7 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>116</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
@@ -4214,7 +4223,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4247,7 +4256,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>250</v>
+        <v>31</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4257,14 +4266,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4273,14 +4282,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>31</v>
+        <v>253</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4290,14 +4299,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>18</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>19</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>17</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4306,14 +4315,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4323,14 +4332,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4339,14 +4348,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4356,14 +4365,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>40</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4379,7 +4388,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4396,7 +4405,7 @@
         <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4412,24 +4421,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>262</v>
+        <v>64</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4438,14 +4447,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4455,11 +4464,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>17</v>
@@ -4471,14 +4480,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>78</v>
+        <v>269</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4488,11 +4497,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>17</v>
@@ -4504,14 +4513,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4521,14 +4530,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>179</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>272</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4558,10 +4567,10 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q98" s="12">
         <v>275</v>
-      </c>
-      <c t="s" r="Q98" s="12">
-        <v>17</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4587,11 +4596,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>17</v>
@@ -4603,7 +4612,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4620,11 +4629,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>66</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>17</v>
@@ -4636,14 +4645,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>280</v>
+        <v>31</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4653,11 +4662,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>264</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>17</v>
@@ -4669,14 +4678,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>17</v>
+        <v>283</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4686,11 +4695,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>17</v>
@@ -4709,7 +4718,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4719,11 +4728,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>230</v>
+        <v>285</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>231</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>17</v>
@@ -4735,14 +4744,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4752,11 +4761,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>89</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>17</v>
@@ -4768,14 +4777,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>287</v>
+        <v>74</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4785,11 +4794,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>278</v>
+        <v>28</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>17</v>
@@ -4801,14 +4810,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4818,11 +4827,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>291</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>17</v>
@@ -4834,14 +4843,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>201</v>
+        <v>292</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4851,51 +4860,84 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>66</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>17</v>
       </c>
     </row>
-    <row r="108" ht="25.5" customHeight="1">
-      <c r="N108" s="13">
-        <v>6692.3400000000001</v>
-      </c>
-      <c r="O108" s="13"/>
-      <c r="P108" s="13"/>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" ht="16.5" customHeight="1">
-      <c t="s" r="A109" s="14">
-        <v>293</v>
-      </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c t="s" r="G109" s="15">
-        <v>294</v>
-      </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c t="s" r="K109" s="17">
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
         <v>295</v>
       </c>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>204</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>36</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>281</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" ht="26.25" customHeight="1">
+      <c r="N109" s="13">
+        <v>6814.3400000000001</v>
+      </c>
+      <c r="O109" s="13"/>
+      <c r="P109" s="13"/>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>296</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>297</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>298</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="517">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5409,10 +5451,15 @@
     <mergeCell ref="H107:K107"/>
     <mergeCell ref="L107:M107"/>
     <mergeCell ref="N107:O107"/>
-    <mergeCell ref="N108:Q108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="N109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
